--- a/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_diff_a_alpha1_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/beta/nonEmpty_diff_a_alpha1_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5084745762711864</v>
+        <v>0.48</v>
       </c>
       <c r="C3">
-        <v>0.4915966386554622</v>
+        <v>0.4989247311827957</v>
       </c>
       <c r="D3">
-        <v>0.5196506550218341</v>
+        <v>0.4903474903474904</v>
       </c>
       <c r="E3">
-        <v>0.5010309278350515</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="F3">
-        <v>0.49800796812749</v>
+        <v>0.525</v>
       </c>
       <c r="G3">
-        <v>0.5020576131687243</v>
+        <v>0.4969072164948454</v>
       </c>
       <c r="H3">
-        <v>0.496</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.527027027027027</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="C4">
-        <v>0.4886128364389234</v>
+        <v>0.4958158995815899</v>
       </c>
       <c r="D4">
-        <v>0.5524475524475524</v>
+        <v>0.5061728395061729</v>
       </c>
       <c r="E4">
-        <v>0.4944444444444445</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="F4">
-        <v>0.4961832061068702</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="G4">
-        <v>0.5028169014084507</v>
+        <v>0.4915730337078651</v>
       </c>
       <c r="H4">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -507,22 +507,22 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>0.4861367837338262</v>
+        <v>0.4940944881889764</v>
       </c>
       <c r="D5">
-        <v>0.5585585585585585</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="E5">
-        <v>0.4987531172069826</v>
+        <v>0.503242542153048</v>
       </c>
       <c r="F5">
-        <v>0.4736842105263158</v>
+        <v>0.4793388429752066</v>
       </c>
       <c r="G5">
-        <v>0.4975609756097561</v>
+        <v>0.5037688442211056</v>
       </c>
       <c r="H5">
-        <v>0.496</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.514018691588785</v>
+        <v>0.5350877192982456</v>
       </c>
       <c r="C6">
-        <v>0.4913793103448276</v>
+        <v>0.4945054945054945</v>
       </c>
       <c r="D6">
-        <v>0.5681818181818182</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0.5018181818181818</v>
+        <v>0.5049751243781094</v>
       </c>
       <c r="F6">
-        <v>0.417910447761194</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="G6">
-        <v>0.5047058823529412</v>
+        <v>0.5037037037037037</v>
       </c>
       <c r="H6">
-        <v>0.486</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4684684684684685</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C7">
-        <v>0.5016025641025641</v>
+        <v>0.4933110367892977</v>
       </c>
       <c r="D7">
-        <v>0.5116279069767442</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E7">
+        <v>0.5048543689320388</v>
+      </c>
+      <c r="F7">
+        <v>0.4742268041237113</v>
+      </c>
+      <c r="G7">
         <v>0.4975845410628019</v>
       </c>
-      <c r="F7">
-        <v>0.4594594594594595</v>
-      </c>
-      <c r="G7">
-        <v>0.5023419203747073</v>
-      </c>
       <c r="H7">
-        <v>0.486</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5137614678899083</v>
+        <v>0.5575221238938053</v>
       </c>
       <c r="C8">
-        <v>0.5097451274362819</v>
+        <v>0.4984939759036144</v>
       </c>
       <c r="D8">
-        <v>0.4367816091954023</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="E8">
-        <v>0.4975609756097561</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.5476190476190477</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="G8">
-        <v>0.5036057692307693</v>
+        <v>0.4963855421686747</v>
       </c>
       <c r="H8">
-        <v>0.482</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5142857142857142</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C9">
-        <v>0.4944444444444445</v>
+        <v>0.4865629420084865</v>
       </c>
       <c r="D9">
-        <v>0.46875</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="E9">
-        <v>0.4944649446494465</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="F9">
-        <v>0.5918367346938775</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.5036674816625917</v>
+        <v>0.5</v>
       </c>
       <c r="H9">
-        <v>0.476</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4468085106382979</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="C10">
-        <v>0.4929577464788732</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="D10">
-        <v>0.5353535353535354</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="E10">
-        <v>0.4895448954489545</v>
+        <v>0.5043156596794082</v>
       </c>
       <c r="F10">
-        <v>0.5247524752475248</v>
+        <v>0.5051546391752577</v>
       </c>
       <c r="G10">
-        <v>0.5055350553505535</v>
+        <v>0.5024630541871922</v>
       </c>
       <c r="H10">
-        <v>0.47</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4479166666666667</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C11">
-        <v>0.5011820330969267</v>
+        <v>0.5054545454545455</v>
       </c>
       <c r="D11">
-        <v>0.5384615384615384</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="E11">
-        <v>0.4870848708487085</v>
+        <v>0.5006242197253433</v>
       </c>
       <c r="F11">
-        <v>0.5444444444444444</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="G11">
-        <v>0.5227552275522755</v>
+        <v>0.5018541409147095</v>
       </c>
       <c r="H11">
-        <v>0.46</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4421052631578947</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C12">
-        <v>0.5087912087912088</v>
+        <v>0.5045454545454545</v>
       </c>
       <c r="D12">
-        <v>0.5714285714285714</v>
+        <v>0.4387755102040816</v>
       </c>
       <c r="E12">
-        <v>0.4861612515042118</v>
+        <v>0.5037220843672456</v>
       </c>
       <c r="F12">
-        <v>0.5217391304347826</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="G12">
-        <v>0.5204326923076923</v>
+        <v>0.5030902348578492</v>
       </c>
       <c r="H12">
-        <v>0.462</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4615384615384616</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C13">
-        <v>0.5113636363636364</v>
+        <v>0.5043196544276458</v>
       </c>
       <c r="D13">
-        <v>0.4375</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="E13">
-        <v>0.4777911164465786</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0.4933333333333333</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="G13">
-        <v>0.5192307692307693</v>
+        <v>0.4981504315659679</v>
       </c>
       <c r="H13">
-        <v>0.476</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4423076923076923</v>
+        <v>0.53</v>
       </c>
       <c r="C14">
-        <v>0.5108055009823183</v>
+        <v>0.5036119711042312</v>
       </c>
       <c r="D14">
-        <v>0.3733333333333334</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="E14">
-        <v>0.4832935560859188</v>
+        <v>0.4993662864385298</v>
       </c>
       <c r="F14">
-        <v>0.5432098765432098</v>
+        <v>0.5979381443298969</v>
       </c>
       <c r="G14">
-        <v>0.5290628706998813</v>
+        <v>0.49375</v>
       </c>
       <c r="H14">
-        <v>0.47</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4842105263157895</v>
+        <v>0.5643564356435643</v>
       </c>
       <c r="C15">
-        <v>0.5164011246485474</v>
+        <v>0.5083251714005876</v>
       </c>
       <c r="D15">
-        <v>0.4197530864197531</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="E15">
-        <v>0.4892344497607656</v>
+        <v>0.4993710691823899</v>
       </c>
       <c r="F15">
-        <v>0.5555555555555556</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="G15">
-        <v>0.529482551143201</v>
+        <v>0.5018495684340321</v>
       </c>
       <c r="H15">
-        <v>0.476</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,22 +790,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4444444444444444</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="C16">
-        <v>0.5075154730327144</v>
+        <v>0.5060352831940576</v>
       </c>
       <c r="D16">
-        <v>0.4183673469387755</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="E16">
-        <v>0.4854368932038835</v>
+        <v>0.5043370508054523</v>
       </c>
       <c r="F16">
-        <v>0.5106382978723404</v>
+        <v>0.4712643678160919</v>
       </c>
       <c r="G16">
-        <v>0.5259975816203144</v>
+        <v>0.5147420147420148</v>
       </c>
       <c r="H16">
         <v>0.48</v>
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4757281553398058</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C17">
-        <v>0.5110356536502547</v>
+        <v>0.5115864527629234</v>
       </c>
       <c r="D17">
-        <v>0.5376344086021505</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="E17">
-        <v>0.4871794871794872</v>
+        <v>0.5024390243902439</v>
       </c>
       <c r="F17">
-        <v>0.4742268041237113</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G17">
-        <v>0.5236938031591738</v>
+        <v>0.5181598062953995</v>
       </c>
       <c r="H17">
-        <v>0.492</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -845,22 +845,22 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>0.5052631578947369</v>
+        <v>0.5142610198789974</v>
       </c>
       <c r="D18">
-        <v>0.5113636363636364</v>
+        <v>0.4431818181818182</v>
       </c>
       <c r="E18">
-        <v>0.4787363304981774</v>
+        <v>0.4969097651421508</v>
       </c>
       <c r="F18">
-        <v>0.4418604651162791</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="G18">
-        <v>0.525609756097561</v>
+        <v>0.5157766990291263</v>
       </c>
       <c r="H18">
-        <v>0.508</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4310344827586207</v>
+        <v>0.4835164835164835</v>
       </c>
       <c r="C19">
-        <v>0.4992150706436421</v>
+        <v>0.516545601291364</v>
       </c>
       <c r="D19">
-        <v>0.5050505050505051</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="E19">
-        <v>0.4872727272727272</v>
+        <v>0.4993894993894994</v>
       </c>
       <c r="F19">
-        <v>0.5119047619047619</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="G19">
-        <v>0.519277108433735</v>
+        <v>0.5116564417177915</v>
       </c>
       <c r="H19">
-        <v>0.526</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5196078431372549</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C20">
-        <v>0.4992469879518072</v>
+        <v>0.5153609831029186</v>
       </c>
       <c r="D20">
-        <v>0.5888888888888889</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="E20">
-        <v>0.4987623762376238</v>
+        <v>0.4891826923076923</v>
       </c>
       <c r="F20">
-        <v>0.5056179775280899</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="G20">
-        <v>0.5121359223300971</v>
+        <v>0.5122249388753056</v>
       </c>
       <c r="H20">
-        <v>0.52</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4579439252336449</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C21">
-        <v>0.4931506849315068</v>
+        <v>0.5081602373887241</v>
       </c>
       <c r="D21">
-        <v>0.6470588235294118</v>
+        <v>0.5164835164835165</v>
       </c>
       <c r="E21">
-        <v>0.4975062344139651</v>
+        <v>0.4915865384615384</v>
       </c>
       <c r="F21">
-        <v>0.4019607843137255</v>
+        <v>0.4625</v>
       </c>
       <c r="G21">
-        <v>0.5149253731343284</v>
+        <v>0.5119617224880383</v>
       </c>
       <c r="H21">
-        <v>0.522</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4666666666666667</v>
+        <v>0.4299065420560748</v>
       </c>
       <c r="C22">
-        <v>0.4975575715282624</v>
+        <v>0.5096774193548387</v>
       </c>
       <c r="D22">
-        <v>0.5752212389380531</v>
+        <v>0.5609756097560976</v>
       </c>
       <c r="E22">
-        <v>0.4974937343358396</v>
+        <v>0.4957472660996355</v>
       </c>
       <c r="F22">
-        <v>0.4803921568627451</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="G22">
-        <v>0.5238095238095238</v>
+        <v>0.5107913669064749</v>
       </c>
       <c r="H22">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4205607476635514</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="C23">
-        <v>0.4979919678714859</v>
+        <v>0.5123456790123457</v>
       </c>
       <c r="D23">
-        <v>0.5102040816326531</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E23">
-        <v>0.5106382978723404</v>
+        <v>0.4987980769230769</v>
       </c>
       <c r="F23">
-        <v>0.4705882352941176</v>
+        <v>0.4</v>
       </c>
       <c r="G23">
-        <v>0.5049261083743842</v>
+        <v>0.5090252707581228</v>
       </c>
       <c r="H23">
-        <v>0.528</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4636363636363636</v>
+        <v>0.4485981308411215</v>
       </c>
       <c r="C24">
-        <v>0.4961389961389961</v>
+        <v>0.5120994113799869</v>
       </c>
       <c r="D24">
-        <v>0.4947368421052631</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E24">
-        <v>0.5181598062953995</v>
+        <v>0.4904534606205251</v>
       </c>
       <c r="F24">
-        <v>0.4523809523809524</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="G24">
-        <v>0.5071428571428571</v>
+        <v>0.5066026410564226</v>
       </c>
       <c r="H24">
-        <v>0.524</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.504424778761062</v>
+        <v>0.4660194174757282</v>
       </c>
       <c r="C25">
-        <v>0.4956467661691542</v>
+        <v>0.5158831003811944</v>
       </c>
       <c r="D25">
-        <v>0.5666666666666667</v>
+        <v>0.524390243902439</v>
       </c>
       <c r="E25">
-        <v>0.5205811138014528</v>
+        <v>0.4964200477326969</v>
       </c>
       <c r="F25">
-        <v>0.4597701149425287</v>
+        <v>0.5308641975308642</v>
       </c>
       <c r="G25">
-        <v>0.5059665871121718</v>
+        <v>0.503001200480192</v>
       </c>
       <c r="H25">
-        <v>0.516</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.4912280701754386</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="C26">
-        <v>0.4924653405666064</v>
+        <v>0.5152439024390244</v>
       </c>
       <c r="D26">
-        <v>0.4777777777777778</v>
+        <v>0.4235294117647059</v>
       </c>
       <c r="E26">
-        <v>0.5176184690157959</v>
+        <v>0.5041617122473246</v>
       </c>
       <c r="F26">
-        <v>0.4418604651162791</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="G26">
-        <v>0.5084745762711864</v>
+        <v>0.497624703087886</v>
       </c>
       <c r="H26">
-        <v>0.518</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5966386554621849</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="C27">
-        <v>0.4927283304246655</v>
+        <v>0.513095238095238</v>
       </c>
       <c r="D27">
-        <v>0.4545454545454545</v>
+        <v>0.475</v>
       </c>
       <c r="E27">
-        <v>0.5193704600484261</v>
+        <v>0.513317191283293</v>
       </c>
       <c r="F27">
-        <v>0.5238095238095238</v>
+        <v>0.4225352112676056</v>
       </c>
       <c r="G27">
-        <v>0.5120481927710844</v>
+        <v>0.4988095238095238</v>
       </c>
       <c r="H27">
-        <v>0.508</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.6160714285714286</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C28">
-        <v>0.4881489841986456</v>
+        <v>0.5213625866050808</v>
       </c>
       <c r="D28">
-        <v>0.4891304347826087</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="E28">
-        <v>0.5258724428399518</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="F28">
-        <v>0.5679012345679012</v>
+        <v>0.4086021505376344</v>
       </c>
       <c r="G28">
-        <v>0.5089820359281437</v>
+        <v>0.5023980815347722</v>
       </c>
       <c r="H28">
-        <v>0.506</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.6274509803921569</v>
+        <v>0.4414414414414414</v>
       </c>
       <c r="C29">
-        <v>0.4871934604904632</v>
+        <v>0.5159842961301178</v>
       </c>
       <c r="D29">
-        <v>0.4705882352941176</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E29">
-        <v>0.5314769975786925</v>
+        <v>0.511742892459827</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="G29">
-        <v>0.5089605734767025</v>
+        <v>0.499383477188656</v>
       </c>
       <c r="H29">
-        <v>0.502</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.6226415094339622</v>
+        <v>0.5</v>
       </c>
       <c r="C30">
-        <v>0.4894957983193277</v>
+        <v>0.5167748917748918</v>
       </c>
       <c r="D30">
-        <v>0.4772727272727273</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="E30">
-        <v>0.5317365269461077</v>
+        <v>0.5109756097560976</v>
       </c>
       <c r="F30">
-        <v>0.4239130434782609</v>
+        <v>0.4591836734693878</v>
       </c>
       <c r="G30">
-        <v>0.5083532219570406</v>
+        <v>0.4896467722289891</v>
       </c>
       <c r="H30">
-        <v>0.504</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5686274509803921</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C31">
-        <v>0.4892197125256674</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="D31">
-        <v>0.4252873563218391</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="E31">
-        <v>0.524330900243309</v>
+        <v>0.5073891625615764</v>
       </c>
       <c r="F31">
-        <v>0.4337349397590362</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="G31">
-        <v>0.5024449877750611</v>
+        <v>0.4785801713586291</v>
       </c>
       <c r="H31">
-        <v>0.506</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.5478260869565217</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="C32">
-        <v>0.4947630922693267</v>
+        <v>0.5149974580579563</v>
       </c>
       <c r="D32">
+        <v>0.51</v>
+      </c>
+      <c r="E32">
+        <v>0.5042944785276073</v>
+      </c>
+      <c r="F32">
         <v>0.4673913043478261</v>
       </c>
-      <c r="E32">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="F32">
-        <v>0.5520833333333334</v>
-      </c>
       <c r="G32">
-        <v>0.4963503649635037</v>
+        <v>0.4787363304981774</v>
       </c>
       <c r="H32">
-        <v>0.508</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.5277777777777778</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C33">
-        <v>0.4943820224719101</v>
+        <v>0.5140463282405126</v>
       </c>
       <c r="D33">
-        <v>0.43</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E33">
-        <v>0.5152625152625152</v>
+        <v>0.5006060606060606</v>
       </c>
       <c r="F33">
-        <v>0.5333333333333333</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="G33">
-        <v>0.4963235294117647</v>
+        <v>0.4754491017964072</v>
       </c>
       <c r="H33">
-        <v>0.498</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.5398230088495575</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>0.4936049265750829</v>
+        <v>0.5100961538461538</v>
       </c>
       <c r="D34">
-        <v>0.4897959183673469</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="E34">
-        <v>0.50920245398773</v>
+        <v>0.5030599755201959</v>
       </c>
       <c r="F34">
-        <v>0.5869565217391305</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="G34">
-        <v>0.4957575757575757</v>
+        <v>0.4734299516908212</v>
       </c>
       <c r="H34">
-        <v>0.498</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.5504587155963303</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="C35">
-        <v>0.4932901434521055</v>
+        <v>0.5100514258999532</v>
       </c>
       <c r="D35">
-        <v>0.5777777777777777</v>
+        <v>0.5520833333333334</v>
       </c>
       <c r="E35">
-        <v>0.5067484662576687</v>
+        <v>0.5060975609756098</v>
       </c>
       <c r="F35">
-        <v>0.6063829787234043</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="G35">
-        <v>0.5012165450121655</v>
+        <v>0.4692400482509047</v>
       </c>
       <c r="H35">
-        <v>0.492</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.495575221238938</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="C36">
-        <v>0.4966231427285007</v>
+        <v>0.510958904109589</v>
       </c>
       <c r="D36">
-        <v>0.5714285714285714</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="E36">
-        <v>0.510353227771011</v>
+        <v>0.5109223300970874</v>
       </c>
       <c r="F36">
-        <v>0.5164835164835165</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="G36">
-        <v>0.5067155067155067</v>
+        <v>0.4825511432009627</v>
       </c>
       <c r="H36">
-        <v>0.488</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5625</v>
+        <v>0.4867256637168141</v>
       </c>
       <c r="C37">
-        <v>0.499339498018494</v>
+        <v>0.5122385402759234</v>
       </c>
       <c r="D37">
-        <v>0.4705882352941176</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="E37">
-        <v>0.5092250922509225</v>
+        <v>0.5180288461538461</v>
       </c>
       <c r="F37">
-        <v>0.4606741573033708</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="G37">
-        <v>0.5085158150851582</v>
+        <v>0.4832535885167464</v>
       </c>
       <c r="H37">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5473684210526316</v>
+        <v>0.45</v>
       </c>
       <c r="C38">
-        <v>0.4965753424657534</v>
+        <v>0.5119513255106476</v>
       </c>
       <c r="D38">
         <v>0.4444444444444444</v>
       </c>
       <c r="E38">
-        <v>0.5099750623441397</v>
+        <v>0.5218934911242603</v>
       </c>
       <c r="F38">
-        <v>0.4680851063829787</v>
+        <v>0.4352941176470588</v>
       </c>
       <c r="G38">
-        <v>0.5110294117647058</v>
+        <v>0.486810551558753</v>
       </c>
       <c r="H38">
-        <v>0.486</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.4466019417475728</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C39">
-        <v>0.4972814721873693</v>
+        <v>0.5124630333755809</v>
       </c>
       <c r="D39">
-        <v>0.4711538461538461</v>
+        <v>0.48</v>
       </c>
       <c r="E39">
-        <v>0.5080545229244114</v>
+        <v>0.5274463007159904</v>
       </c>
       <c r="F39">
-        <v>0.4791666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="G39">
-        <v>0.5098280098280098</v>
+        <v>0.4812121212121212</v>
       </c>
       <c r="H39">
-        <v>0.504</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.4272727272727272</v>
+        <v>0.4495412844036697</v>
       </c>
       <c r="C40">
-        <v>0.5028759244042728</v>
+        <v>0.5128737541528239</v>
       </c>
       <c r="D40">
-        <v>0.4851485148514851</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="E40">
-        <v>0.5074812967581047</v>
+        <v>0.5289156626506024</v>
       </c>
       <c r="F40">
-        <v>0.5714285714285714</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="G40">
-        <v>0.5147783251231527</v>
+        <v>0.4822085889570552</v>
       </c>
       <c r="H40">
-        <v>0.504</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.4537037037037037</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C41">
-        <v>0.5030229746070133</v>
+        <v>0.5103197086199919</v>
       </c>
       <c r="D41">
-        <v>0.4594594594594595</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="E41">
-        <v>0.506815365551425</v>
+        <v>0.5296969696969697</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="G41">
-        <v>0.508495145631068</v>
+        <v>0.4823386114494519</v>
       </c>
       <c r="H41">
-        <v>0.506</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.4818181818181818</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="C42">
-        <v>0.5007849293563579</v>
+        <v>0.5079176563737133</v>
       </c>
       <c r="D42">
-        <v>0.4716981132075472</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="E42">
-        <v>0.5061576354679803</v>
+        <v>0.5235223160434258</v>
       </c>
       <c r="F42">
-        <v>0.5168539325842697</v>
+        <v>0.5058823529411764</v>
       </c>
       <c r="G42">
-        <v>0.5163240628778718</v>
+        <v>0.4720194647201946</v>
       </c>
       <c r="H42">
-        <v>0.5</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.5490196078431373</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C43">
-        <v>0.5009626492106276</v>
+        <v>0.5097125097125097</v>
       </c>
       <c r="D43">
-        <v>0.5365853658536586</v>
+        <v>0.5684210526315789</v>
       </c>
       <c r="E43">
-        <v>0.5067650676506765</v>
+        <v>0.519277108433735</v>
       </c>
       <c r="F43">
-        <v>0.48</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="G43">
-        <v>0.5090252707581228</v>
+        <v>0.4703748488512696</v>
       </c>
       <c r="H43">
-        <v>0.508</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5148514851485149</v>
+        <v>0.494949494949495</v>
       </c>
       <c r="C44">
-        <v>0.4964325948178746</v>
+        <v>0.5079726651480638</v>
       </c>
       <c r="D44">
-        <v>0.5058823529411764</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="E44">
-        <v>0.5078219013237064</v>
+        <v>0.5239852398523985</v>
       </c>
       <c r="F44">
-        <v>0.4534883720930232</v>
+        <v>0.53125</v>
       </c>
       <c r="G44">
-        <v>0.5107142857142857</v>
+        <v>0.4700122399020808</v>
       </c>
       <c r="H44">
-        <v>0.51</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="C45">
-        <v>0.4977957384276268</v>
+        <v>0.5062776957163959</v>
       </c>
       <c r="D45">
-        <v>0.5476190476190477</v>
+        <v>0.5242718446601942</v>
       </c>
       <c r="E45">
-        <v>0.5102040816326531</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="F45">
-        <v>0.4078947368421053</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="G45">
-        <v>0.5179856115107914</v>
+        <v>0.4744525547445255</v>
       </c>
       <c r="H45">
-        <v>0.498</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5185185185185185</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="C46">
-        <v>0.4989177489177489</v>
+        <v>0.5061683599419449</v>
       </c>
       <c r="D46">
-        <v>0.4942528735632184</v>
+        <v>0.5</v>
       </c>
       <c r="E46">
-        <v>0.5169082125603864</v>
+        <v>0.5307125307125307</v>
       </c>
       <c r="F46">
-        <v>0.4418604651162791</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="G46">
-        <v>0.5227272727272727</v>
+        <v>0.4791154791154791</v>
       </c>
       <c r="H46">
-        <v>0.492</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.5185185185185185</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C47">
-        <v>0.4959060163759345</v>
+        <v>0.5066000713521227</v>
       </c>
       <c r="D47">
-        <v>0.4659090909090909</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="E47">
-        <v>0.5221674876847291</v>
+        <v>0.5329268292682927</v>
       </c>
       <c r="F47">
-        <v>0.3764705882352941</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="G47">
-        <v>0.5166051660516605</v>
+        <v>0.4839506172839506</v>
       </c>
       <c r="H47">
-        <v>0.484</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.5377358490566038</v>
+        <v>0.49</v>
       </c>
       <c r="C48">
-        <v>0.4959888385071503</v>
+        <v>0.5048882681564246</v>
       </c>
       <c r="D48">
-        <v>0.5490196078431373</v>
+        <v>0.5094339622641509</v>
       </c>
       <c r="E48">
-        <v>0.5226993865030675</v>
+        <v>0.5355392156862745</v>
       </c>
       <c r="F48">
-        <v>0.4444444444444444</v>
+        <v>0.4948453608247423</v>
       </c>
       <c r="G48">
-        <v>0.5158924205378973</v>
+        <v>0.4857849196538937</v>
       </c>
       <c r="H48">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.5688073394495413</v>
+        <v>0.5494505494505495</v>
       </c>
       <c r="C49">
-        <v>0.4950257289879931</v>
+        <v>0.5049640534063676</v>
       </c>
       <c r="D49">
         <v>0.5</v>
       </c>
       <c r="E49">
-        <v>0.523038605230386</v>
+        <v>0.5419753086419753</v>
       </c>
       <c r="F49">
-        <v>0.4951456310679612</v>
+        <v>0.4883720930232558</v>
       </c>
       <c r="G49">
-        <v>0.5119196988707654</v>
+        <v>0.4829268292682927</v>
       </c>
       <c r="H49">
-        <v>0.48</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.58</v>
+        <v>0.59375</v>
       </c>
       <c r="C50">
-        <v>0.4946344735077129</v>
+        <v>0.5035246727089627</v>
       </c>
       <c r="D50">
-        <v>0.5142857142857142</v>
+        <v>0.5</v>
       </c>
       <c r="E50">
-        <v>0.5275397796817626</v>
+        <v>0.5427509293680297</v>
       </c>
       <c r="F50">
-        <v>0.495049504950495</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="G50">
-        <v>0.501840490797546</v>
+        <v>0.473170731707317</v>
       </c>
       <c r="H50">
-        <v>0.486</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.5600000000000001</v>
+        <v>0.5339805825242718</v>
       </c>
       <c r="C51">
-        <v>0.4949029924366984</v>
+        <v>0.5041431885979449</v>
       </c>
       <c r="D51">
-        <v>0.5194805194805194</v>
+        <v>0.4639175257731959</v>
       </c>
       <c r="E51">
-        <v>0.5214723926380368</v>
+        <v>0.5426065162907269</v>
       </c>
       <c r="F51">
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="G51">
         <v>0.4814814814814815</v>
       </c>
-      <c r="G51">
-        <v>0.5048780487804878</v>
-      </c>
       <c r="H51">
-        <v>0.482</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.514018691588785</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C52">
-        <v>0.4949854416046587</v>
+        <v>0.5039190071848465</v>
       </c>
       <c r="D52">
-        <v>0.4835164835164835</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="E52">
-        <v>0.5199516324062878</v>
+        <v>0.5394242803504381</v>
       </c>
       <c r="F52">
-        <v>0.5172413793103449</v>
+        <v>0.5321100917431193</v>
       </c>
       <c r="G52">
-        <v>0.5091130012150669</v>
+        <v>0.4751243781094527</v>
       </c>
       <c r="H52">
-        <v>0.48</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5252525252525253</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="C53">
-        <v>0.4973058637083994</v>
+        <v>0.5064432989690721</v>
       </c>
       <c r="D53">
-        <v>0.5465116279069767</v>
+        <v>0.5247524752475248</v>
       </c>
       <c r="E53">
-        <v>0.5269461077844312</v>
+        <v>0.5304568527918782</v>
       </c>
       <c r="F53">
-        <v>0.5425531914893617</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="G53">
-        <v>0.5125148986889154</v>
+        <v>0.4748110831234257</v>
       </c>
       <c r="H53">
-        <v>0.48</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5979381443298969</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C54">
-        <v>0.4970414201183432</v>
+        <v>0.5067973442933924</v>
       </c>
       <c r="D54">
-        <v>0.5066666666666667</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="E54">
-        <v>0.5131578947368421</v>
+        <v>0.5238678090575275</v>
       </c>
       <c r="F54">
-        <v>0.4583333333333333</v>
+        <v>0.5567010309278351</v>
       </c>
       <c r="G54">
-        <v>0.503015681544029</v>
+        <v>0.4766584766584767</v>
       </c>
       <c r="H54">
-        <v>0.492</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C55">
-        <v>0.4944819129368486</v>
+        <v>0.5044933374651379</v>
       </c>
       <c r="D55">
-        <v>0.5</v>
+        <v>0.4942528735632184</v>
       </c>
       <c r="E55">
-        <v>0.5163636363636364</v>
+        <v>0.5232843137254902</v>
       </c>
       <c r="F55">
-        <v>0.5647058823529412</v>
+        <v>0.6</v>
       </c>
       <c r="G55">
-        <v>0.5072289156626506</v>
+        <v>0.4939613526570048</v>
       </c>
       <c r="H55">
-        <v>0.494</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5288461538461539</v>
+        <v>0.4757281553398058</v>
       </c>
       <c r="C56">
-        <v>0.4969733656174334</v>
+        <v>0.5045787545787546</v>
       </c>
       <c r="D56">
-        <v>0.4747474747474748</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E56">
-        <v>0.5196560196560197</v>
+        <v>0.5175757575757576</v>
       </c>
       <c r="F56">
-        <v>0.5</v>
+        <v>0.5394736842105263</v>
       </c>
       <c r="G56">
-        <v>0.5049019607843137</v>
+        <v>0.4945978391356542</v>
       </c>
       <c r="H56">
-        <v>0.512</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.4537037037037037</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="C57">
-        <v>0.4968796433878158</v>
+        <v>0.5062649164677804</v>
       </c>
       <c r="D57">
-        <v>0.4666666666666667</v>
+        <v>0.51</v>
       </c>
       <c r="E57">
-        <v>0.530209617755857</v>
+        <v>0.5133495145631068</v>
       </c>
       <c r="F57">
-        <v>0.5108695652173914</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="G57">
-        <v>0.5120481927710844</v>
+        <v>0.4970273483947681</v>
       </c>
       <c r="H57">
-        <v>0.508</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.5263157894736842</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="C58">
-        <v>0.5008771929824561</v>
+        <v>0.5066195939982348</v>
       </c>
       <c r="D58">
-        <v>0.5</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="E58">
-        <v>0.5318627450980392</v>
+        <v>0.5196560196560197</v>
       </c>
       <c r="F58">
-        <v>0.5056179775280899</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="G58">
-        <v>0.5078407720144753</v>
+        <v>0.4981992797118848</v>
       </c>
       <c r="H58">
-        <v>0.512</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.4716981132075472</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="C59">
-        <v>0.4985623921794134</v>
+        <v>0.5054849884526559</v>
       </c>
       <c r="D59">
-        <v>0.4268292682926829</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="E59">
-        <v>0.5243179122182681</v>
+        <v>0.524788391777509</v>
       </c>
       <c r="F59">
-        <v>0.4942528735632184</v>
+        <v>0.5</v>
       </c>
       <c r="G59">
-        <v>0.5047846889952153</v>
+        <v>0.5071942446043165</v>
       </c>
       <c r="H59">
-        <v>0.508</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4495412844036697</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C60">
-        <v>0.5014076576576577</v>
+        <v>0.5071265678449259</v>
       </c>
       <c r="D60">
-        <v>0.5</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="E60">
-        <v>0.5223529411764706</v>
+        <v>0.5235792019347038</v>
       </c>
       <c r="F60">
-        <v>0.5316455696202531</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="G60">
-        <v>0.5011820330969267</v>
+        <v>0.5024330900243309</v>
       </c>
       <c r="H60">
-        <v>0.512</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.4811320754716981</v>
+        <v>0.488</v>
       </c>
       <c r="C61">
-        <v>0.5015231237884242</v>
+        <v>0.5074584857866592</v>
       </c>
       <c r="D61">
-        <v>0.4324324324324325</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="E61">
-        <v>0.5141176470588236</v>
+        <v>0.5169491525423728</v>
       </c>
       <c r="F61">
-        <v>0.5569620253164557</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="G61">
-        <v>0.5017626321974148</v>
+        <v>0.4951338199513382</v>
       </c>
       <c r="H61">
-        <v>0.52</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.4742268041237113</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C62">
-        <v>0.5005449591280654</v>
+        <v>0.5079188663517644</v>
       </c>
       <c r="D62">
-        <v>0.5128205128205128</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="E62">
-        <v>0.5183431952662721</v>
+        <v>0.5071770334928229</v>
       </c>
       <c r="F62">
-        <v>0.5394736842105263</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="G62">
-        <v>0.5023809523809524</v>
+        <v>0.491421568627451</v>
       </c>
       <c r="H62">
-        <v>0.52</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2015,22 +2015,22 @@
         <v>0.495049504950495</v>
       </c>
       <c r="C63">
-        <v>0.5029459025174076</v>
+        <v>0.5071077091306725</v>
       </c>
       <c r="D63">
-        <v>0.4814814814814815</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="E63">
-        <v>0.5125448028673835</v>
+        <v>0.5036496350364964</v>
       </c>
       <c r="F63">
-        <v>0.4625</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="G63">
-        <v>0.5041716328963052</v>
+        <v>0.4957055214723927</v>
       </c>
       <c r="H63">
-        <v>0.514</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>0.5408163265306123</v>
       </c>
       <c r="C64">
-        <v>0.5021197668256492</v>
+        <v>0.5095302013422819</v>
       </c>
       <c r="D64">
-        <v>0.3636363636363636</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="E64">
-        <v>0.5127272727272727</v>
+        <v>0.5024570024570024</v>
       </c>
       <c r="F64">
-        <v>0.475</v>
+        <v>0.5578947368421052</v>
       </c>
       <c r="G64">
-        <v>0.5139056831922612</v>
+        <v>0.4993894993894994</v>
       </c>
       <c r="H64">
-        <v>0.5</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5</v>
+        <v>0.5045045045045045</v>
       </c>
       <c r="C65">
-        <v>0.5037928328537797</v>
+        <v>0.5079239302694136</v>
       </c>
       <c r="D65">
-        <v>0.4456521739130435</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="E65">
-        <v>0.508495145631068</v>
+        <v>0.5012285012285013</v>
       </c>
       <c r="F65">
-        <v>0.4842105263157895</v>
+        <v>0.5402298850574713</v>
       </c>
       <c r="G65">
-        <v>0.5091352009744214</v>
+        <v>0.5066991473812423</v>
       </c>
       <c r="H65">
-        <v>0.506</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.509090909090909</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C66">
-        <v>0.504119464469619</v>
+        <v>0.509375</v>
       </c>
       <c r="D66">
-        <v>0.4375</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="E66">
-        <v>0.5024330900243309</v>
+        <v>0.4993954050785974</v>
       </c>
       <c r="F66">
-        <v>0.5196078431372549</v>
+        <v>0.4941176470588236</v>
       </c>
       <c r="G66">
-        <v>0.514041514041514</v>
+        <v>0.513095238095238</v>
       </c>
       <c r="H66">
-        <v>0.502</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5181818181818182</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C67">
-        <v>0.5048272357723578</v>
+        <v>0.510545267489712</v>
       </c>
       <c r="D67">
-        <v>0.4583333333333333</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="E67">
-        <v>0.4975728155339806</v>
+        <v>0.4993939393939394</v>
       </c>
       <c r="F67">
-        <v>0.4554455445544555</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="G67">
-        <v>0.511002444987775</v>
+        <v>0.5114320096269555</v>
       </c>
       <c r="H67">
-        <v>0.506</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5142857142857142</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="C68">
-        <v>0.5038817931379915</v>
+        <v>0.511380880121396</v>
       </c>
       <c r="D68">
-        <v>0.4444444444444444</v>
+        <v>0.4456521739130435</v>
       </c>
       <c r="E68">
-        <v>0.4890243902439024</v>
+        <v>0.4981905910735827</v>
       </c>
       <c r="F68">
-        <v>0.4888888888888889</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G68">
-        <v>0.5190184049079755</v>
+        <v>0.5148986889153755</v>
       </c>
       <c r="H68">
-        <v>0.504</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5263157894736842</v>
+        <v>0.5363636363636364</v>
       </c>
       <c r="C69">
-        <v>0.5029629629629629</v>
+        <v>0.5075150300601202</v>
       </c>
       <c r="D69">
-        <v>0.4827586206896552</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E69">
-        <v>0.4866504854368932</v>
+        <v>0.4993865030674847</v>
       </c>
       <c r="F69">
-        <v>0.5340909090909091</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="G69">
-        <v>0.5127272727272727</v>
+        <v>0.5078979343863913</v>
       </c>
       <c r="H69">
-        <v>0.492</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.4791666666666667</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C70">
-        <v>0.5024330900243309</v>
+        <v>0.5087762669962917</v>
       </c>
       <c r="D70">
-        <v>0.5164835164835165</v>
+        <v>0.4851485148514851</v>
       </c>
       <c r="E70">
-        <v>0.4811205846528623</v>
+        <v>0.4944375772558715</v>
       </c>
       <c r="F70">
-        <v>0.5376344086021505</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="G70">
-        <v>0.5091352009744214</v>
+        <v>0.4981773997569867</v>
       </c>
       <c r="H70">
-        <v>0.5</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.4757281553398058</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C71">
-        <v>0.5048030739673391</v>
+        <v>0.5095121951219512</v>
       </c>
       <c r="D71">
-        <v>0.5208333333333334</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E71">
-        <v>0.4847001223990208</v>
+        <v>0.4956736711990111</v>
       </c>
       <c r="F71">
-        <v>0.6041666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G71">
-        <v>0.5141104294478528</v>
+        <v>0.4944785276073619</v>
       </c>
       <c r="H71">
-        <v>0.494</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5042735042735043</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="C72">
-        <v>0.5042654028436019</v>
+        <v>0.5110523786641038</v>
       </c>
       <c r="D72">
-        <v>0.4315789473684211</v>
+        <v>0.4175824175824176</v>
       </c>
       <c r="E72">
-        <v>0.4890776699029126</v>
+        <v>0.5036945812807881</v>
       </c>
       <c r="F72">
-        <v>0.59</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="G72">
-        <v>0.5054545454545455</v>
+        <v>0.4908647990255786</v>
       </c>
       <c r="H72">
-        <v>0.498</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="C73">
-        <v>0.503527751646284</v>
+        <v>0.5115229270610596</v>
       </c>
       <c r="D73">
-        <v>0.4883720930232558</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="E73">
-        <v>0.4993880048959609</v>
+        <v>0.503052503052503</v>
       </c>
       <c r="F73">
-        <v>0.4947368421052631</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G73">
-        <v>0.5061576354679803</v>
+        <v>0.491421568627451</v>
       </c>
       <c r="H73">
-        <v>0.49</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.487603305785124</v>
+        <v>0.5478260869565217</v>
       </c>
       <c r="C74">
-        <v>0.5059123579874797</v>
+        <v>0.5111267275708596</v>
       </c>
       <c r="D74">
-        <v>0.4444444444444444</v>
+        <v>0.4361702127659575</v>
       </c>
       <c r="E74">
-        <v>0.4957678355501814</v>
+        <v>0.4951690821256038</v>
       </c>
       <c r="F74">
-        <v>0.4150943396226415</v>
+        <v>0.5204081632653061</v>
       </c>
       <c r="G74">
-        <v>0.5164835164835165</v>
+        <v>0.48</v>
       </c>
       <c r="H74">
-        <v>0.49</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.4576271186440678</v>
+        <v>0.4553571428571428</v>
       </c>
       <c r="C75">
-        <v>0.5042382588774341</v>
+        <v>0.5099583140342752</v>
       </c>
       <c r="D75">
-        <v>0.4333333333333333</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E75">
-        <v>0.4993894993894994</v>
+        <v>0.4927184466019418</v>
       </c>
       <c r="F75">
-        <v>0.4588235294117647</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="G75">
-        <v>0.5196560196560197</v>
+        <v>0.474390243902439</v>
       </c>
       <c r="H75">
-        <v>0.496</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5043478260869565</v>
+        <v>0.4299065420560748</v>
       </c>
       <c r="C76">
-        <v>0.5040705563093623</v>
+        <v>0.5123853211009174</v>
       </c>
       <c r="D76">
-        <v>0.4772727272727273</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="E76">
-        <v>0.4914634146341463</v>
+        <v>0.4907749077490775</v>
       </c>
       <c r="F76">
-        <v>0.5227272727272727</v>
+        <v>0.5268817204301075</v>
       </c>
       <c r="G76">
-        <v>0.5145278450363197</v>
+        <v>0.4838308457711443</v>
       </c>
       <c r="H76">
-        <v>0.5</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5555555555555556</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C77">
-        <v>0.5010037921035021</v>
+        <v>0.5133182844243792</v>
       </c>
       <c r="D77">
-        <v>0.5463917525773195</v>
+        <v>0.4854368932038835</v>
       </c>
       <c r="E77">
-        <v>0.4945586457073761</v>
+        <v>0.4981684981684982</v>
       </c>
       <c r="F77">
-        <v>0.5543478260869565</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="G77">
-        <v>0.5084541062801933</v>
+        <v>0.484029484029484</v>
       </c>
       <c r="H77">
-        <v>0.498</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5288461538461539</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C78">
-        <v>0.4993380406001765</v>
+        <v>0.5128319571524214</v>
       </c>
       <c r="D78">
-        <v>0.5957446808510638</v>
+        <v>0.4725274725274725</v>
       </c>
       <c r="E78">
-        <v>0.5031055900621118</v>
+        <v>0.4975609756097561</v>
       </c>
       <c r="F78">
-        <v>0.4782608695652174</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="G78">
-        <v>0.5055487053020962</v>
+        <v>0.4863861386138614</v>
       </c>
       <c r="H78">
-        <v>0.51</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.5050505050505051</v>
+        <v>0.485981308411215</v>
       </c>
       <c r="C79">
-        <v>0.4998910912655195</v>
+        <v>0.5120772946859904</v>
       </c>
       <c r="D79">
-        <v>0.6</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="E79">
-        <v>0.5161290322580645</v>
+        <v>0.4957472660996355</v>
       </c>
       <c r="F79">
-        <v>0.4144144144144144</v>
+        <v>0.43</v>
       </c>
       <c r="G79">
-        <v>0.5136138613861386</v>
+        <v>0.4932014833127318</v>
       </c>
       <c r="H79">
-        <v>0.498</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.4954954954954955</v>
+        <v>0.4690265486725664</v>
       </c>
       <c r="C80">
-        <v>0.5002156101768004</v>
+        <v>0.5117442366246194</v>
       </c>
       <c r="D80">
-        <v>0.5360824742268041</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E80">
-        <v>0.5223880597014925</v>
+        <v>0.4951690821256038</v>
       </c>
       <c r="F80">
-        <v>0.3867924528301887</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="G80">
-        <v>0.5169811320754717</v>
+        <v>0.4871481028151775</v>
       </c>
       <c r="H80">
-        <v>0.5</v>
+        <v>0.514</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.4770642201834863</v>
+        <v>0.5321100917431193</v>
       </c>
       <c r="C81">
-        <v>0.5003198976327575</v>
+        <v>0.5111924235901851</v>
       </c>
       <c r="D81">
-        <v>0.5188679245283019</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="E81">
-        <v>0.5282555282555282</v>
+        <v>0.4993894993894994</v>
       </c>
       <c r="F81">
-        <v>0.404040404040404</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="G81">
-        <v>0.5161290322580645</v>
+        <v>0.4847746650426309</v>
       </c>
       <c r="H81">
-        <v>0.484</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5045871559633027</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C82">
-        <v>0.5013669821240799</v>
+        <v>0.5090483287204599</v>
       </c>
       <c r="D82">
-        <v>0.5217391304347826</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="E82">
-        <v>0.5309842041312273</v>
+        <v>0.4951100244498777</v>
       </c>
       <c r="F82">
-        <v>0.4516129032258064</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="G82">
-        <v>0.5108433734939759</v>
+        <v>0.4884004884004884</v>
       </c>
       <c r="H82">
-        <v>0.484</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5326086956521739</v>
+        <v>0.4956521739130435</v>
       </c>
       <c r="C83">
-        <v>0.5015576323987538</v>
+        <v>0.5110782865583456</v>
       </c>
       <c r="D83">
-        <v>0.4772727272727273</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="E83">
-        <v>0.5330132052821128</v>
+        <v>0.5030750307503075</v>
       </c>
       <c r="F83">
-        <v>0.4050632911392405</v>
+        <v>0.5053763440860215</v>
       </c>
       <c r="G83">
-        <v>0.5023980815347722</v>
+        <v>0.4895191122071517</v>
       </c>
       <c r="H83">
-        <v>0.488</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.4905660377358491</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="C84">
-        <v>0.5010224948875256</v>
+        <v>0.5111481558658054</v>
       </c>
       <c r="D84">
-        <v>0.4767441860465116</v>
+        <v>0.4123711340206185</v>
       </c>
       <c r="E84">
-        <v>0.5282112845138055</v>
+        <v>0.5097323600973236</v>
       </c>
       <c r="F84">
-        <v>0.4320987654320987</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="G84">
-        <v>0.5095011876484561</v>
+        <v>0.4889705882352941</v>
       </c>
       <c r="H84">
-        <v>0.49</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.4778761061946903</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="C85">
-        <v>0.5018277822908205</v>
+        <v>0.5109878825220785</v>
       </c>
       <c r="D85">
-        <v>0.4875</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E85">
-        <v>0.5242718446601942</v>
+        <v>0.514041514041514</v>
       </c>
       <c r="F85">
-        <v>0.5113636363636364</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="G85">
-        <v>0.503015681544029</v>
+        <v>0.4963414634146341</v>
       </c>
       <c r="H85">
-        <v>0.484</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.4903846153846154</v>
+        <v>0.4432989690721649</v>
       </c>
       <c r="C86">
-        <v>0.5015099657741091</v>
+        <v>0.5120861263457241</v>
       </c>
       <c r="D86">
-        <v>0.4725274725274725</v>
+        <v>0.46875</v>
       </c>
       <c r="E86">
-        <v>0.526829268292683</v>
+        <v>0.5072815533980582</v>
       </c>
       <c r="F86">
-        <v>0.5</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="G86">
-        <v>0.5024570024570024</v>
+        <v>0.4987834549878346</v>
       </c>
       <c r="H86">
-        <v>0.486</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.4537037037037037</v>
+        <v>0.4951456310679612</v>
       </c>
       <c r="C87">
-        <v>0.5024905359633393</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="D87">
-        <v>0.5274725274725275</v>
+        <v>0.5</v>
       </c>
       <c r="E87">
-        <v>0.5280199252801993</v>
+        <v>0.5030450669914738</v>
       </c>
       <c r="F87">
-        <v>0.4134615384615384</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="G87">
-        <v>0.5006242197253433</v>
+        <v>0.4964028776978417</v>
       </c>
       <c r="H87">
-        <v>0.496</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.4770642201834863</v>
+        <v>0.4752475247524752</v>
       </c>
       <c r="C88">
-        <v>0.5037490134175217</v>
+        <v>0.5113095238095238</v>
       </c>
       <c r="D88">
+        <v>0.5</v>
+      </c>
+      <c r="E88">
+        <v>0.4921020656136088</v>
+      </c>
+      <c r="F88">
+        <v>0.4939759036144578</v>
+      </c>
+      <c r="G88">
         <v>0.4897959183673469</v>
       </c>
-      <c r="E88">
-        <v>0.5284653465346535</v>
-      </c>
-      <c r="F88">
-        <v>0.4912280701754386</v>
-      </c>
-      <c r="G88">
-        <v>0.5150753768844221</v>
-      </c>
       <c r="H88">
-        <v>0.504</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.4732142857142857</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="C89">
-        <v>0.5027333073018352</v>
+        <v>0.5114818449460256</v>
       </c>
       <c r="D89">
-        <v>0.5</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="E89">
-        <v>0.5190184049079755</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="F89">
-        <v>0.4421052631578947</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G89">
-        <v>0.5018773466833542</v>
+        <v>0.4890776699029126</v>
       </c>
       <c r="H89">
-        <v>0.502</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5041322314049587</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C90">
-        <v>0.5028946352759552</v>
+        <v>0.511587147030185</v>
       </c>
       <c r="D90">
-        <v>0.5581395348837209</v>
+        <v>0.46875</v>
       </c>
       <c r="E90">
-        <v>0.5145985401459854</v>
+        <v>0.4951807228915663</v>
       </c>
       <c r="F90">
-        <v>0.47</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="G90">
-        <v>0.5078787878787879</v>
+        <v>0.4945321992709599</v>
       </c>
       <c r="H90">
-        <v>0.496</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5238095238095238</v>
+        <v>0.456896551724138</v>
       </c>
       <c r="C91">
-        <v>0.5013404825737265</v>
+        <v>0.5129832660126947</v>
       </c>
       <c r="D91">
-        <v>0.5454545454545454</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="E91">
-        <v>0.5102781136638452</v>
+        <v>0.5024271844660194</v>
       </c>
       <c r="F91">
-        <v>0.4941176470588236</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="G91">
-        <v>0.5135135135135135</v>
+        <v>0.5012048192771085</v>
       </c>
       <c r="H91">
-        <v>0.492</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5338983050847458</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="C92">
-        <v>0.5003797949107482</v>
+        <v>0.5115480053445314</v>
       </c>
       <c r="D92">
-        <v>0.574468085106383</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="E92">
-        <v>0.5139732685297691</v>
+        <v>0.5098280098280098</v>
       </c>
       <c r="F92">
-        <v>0.53</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="G92">
-        <v>0.5073529411764706</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="H92">
-        <v>0.5</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.5405405405405406</v>
+        <v>0.4907407407407408</v>
       </c>
       <c r="C93">
-        <v>0.5002811621368323</v>
+        <v>0.5104578858111928</v>
       </c>
       <c r="D93">
-        <v>0.5980392156862745</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="E93">
-        <v>0.5103785103785103</v>
+        <v>0.5042424242424243</v>
       </c>
       <c r="F93">
-        <v>0.4893617021276596</v>
+        <v>0.4095238095238095</v>
       </c>
       <c r="G93">
-        <v>0.5024570024570024</v>
+        <v>0.5073349633251834</v>
       </c>
       <c r="H93">
-        <v>0.504</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.4423076923076923</v>
+        <v>0.4862385321100918</v>
       </c>
       <c r="C94">
-        <v>0.501297257227576</v>
+        <v>0.510162222636584</v>
       </c>
       <c r="D94">
-        <v>0.5903614457831325</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="E94">
-        <v>0.5030674846625767</v>
+        <v>0.5036496350364964</v>
       </c>
       <c r="F94">
-        <v>0.4827586206896552</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G94">
-        <v>0.5072815533980582</v>
+        <v>0.5073529411764706</v>
       </c>
       <c r="H94">
-        <v>0.502</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.4260869565217391</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C95">
-        <v>0.5036589828027809</v>
+        <v>0.5097930524759793</v>
       </c>
       <c r="D95">
-        <v>0.5222222222222223</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="E95">
-        <v>0.5053892215568863</v>
+        <v>0.503052503052503</v>
       </c>
       <c r="F95">
-        <v>0.5357142857142857</v>
+        <v>0.4021739130434783</v>
       </c>
       <c r="G95">
-        <v>0.5071942446043165</v>
+        <v>0.4981773997569867</v>
       </c>
       <c r="H95">
-        <v>0.512</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.453125</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C96">
-        <v>0.5035422343324251</v>
+        <v>0.5098003297307199</v>
       </c>
       <c r="D96">
-        <v>0.4444444444444444</v>
+        <v>0.5287356321839081</v>
       </c>
       <c r="E96">
-        <v>0.5096618357487923</v>
+        <v>0.5109489051094891</v>
       </c>
       <c r="F96">
-        <v>0.5227272727272727</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="G96">
-        <v>0.5083932853717026</v>
+        <v>0.501219512195122</v>
       </c>
       <c r="H96">
-        <v>0.52</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.4864864864864865</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="C97">
-        <v>0.5027932960893855</v>
+        <v>0.5111635505536395</v>
       </c>
       <c r="D97">
-        <v>0.5058823529411764</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E97">
-        <v>0.5186522262334536</v>
+        <v>0.5175332527206772</v>
       </c>
       <c r="F97">
-        <v>0.4742268041237113</v>
+        <v>0.5054945054945055</v>
       </c>
       <c r="G97">
-        <v>0.5115151515151515</v>
+        <v>0.4944785276073619</v>
       </c>
       <c r="H97">
-        <v>0.514</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.4434782608695652</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C98">
-        <v>0.502135231316726</v>
+        <v>0.5109436670254754</v>
       </c>
       <c r="D98">
-        <v>0.5060240963855421</v>
+        <v>0.4268292682926829</v>
       </c>
       <c r="E98">
-        <v>0.5102286401925391</v>
+        <v>0.5195121951219512</v>
       </c>
       <c r="F98">
-        <v>0.4</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="G98">
-        <v>0.5134146341463415</v>
+        <v>0.4908647990255786</v>
       </c>
       <c r="H98">
-        <v>0.516</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.415929203539823</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="C99">
-        <v>0.5037979155626214</v>
+        <v>0.5110202630643441</v>
       </c>
       <c r="D99">
-        <v>0.5217391304347826</v>
+        <v>0.4787234042553192</v>
       </c>
       <c r="E99">
-        <v>0.5073170731707317</v>
+        <v>0.5212636695018226</v>
       </c>
       <c r="F99">
-        <v>0.5116279069767442</v>
+        <v>0.4130434782608696</v>
       </c>
       <c r="G99">
-        <v>0.5147420147420148</v>
+        <v>0.4963235294117647</v>
       </c>
       <c r="H99">
-        <v>0.502</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.3861386138613861</v>
+        <v>0.5041322314049587</v>
       </c>
       <c r="C100">
-        <v>0.5044572627163083</v>
+        <v>0.511455763130067</v>
       </c>
       <c r="D100">
-        <v>0.4646464646464646</v>
+        <v>0.5326086956521739</v>
       </c>
       <c r="E100">
-        <v>0.5098280098280098</v>
+        <v>0.5115995115995116</v>
       </c>
       <c r="F100">
-        <v>0.5161290322580645</v>
+        <v>0.4574468085106383</v>
       </c>
       <c r="G100">
-        <v>0.5036585365853659</v>
+        <v>0.4975669099756691</v>
       </c>
       <c r="H100">
-        <v>0.504</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.4285714285714285</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C101">
-        <v>0.5064800414722654</v>
+        <v>0.509163902949904</v>
       </c>
       <c r="D101">
-        <v>0.3953488372093023</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="E101">
-        <v>0.5147058823529411</v>
+        <v>0.5042527339003645</v>
       </c>
       <c r="F101">
-        <v>0.4772727272727273</v>
+        <v>0.4880952380952381</v>
       </c>
       <c r="G101">
-        <v>0.5109489051094891</v>
+        <v>0.4847746650426309</v>
       </c>
       <c r="H101">
-        <v>0.502</v>
+        <v>0.498</v>
       </c>
     </row>
   </sheetData>
